--- a/lists/top_pen.xlsx
+++ b/lists/top_pen.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,42 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>GeneID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>baseMean</t>
+          <t>log2FoldChange</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>log2FoldChange</t>
+          <t>padj</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>lfcSE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>stat</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pvalue</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>padj</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
+          <t>Hypthetical Function</t>
         </is>
       </c>
     </row>
@@ -406,24 +386,12 @@
         </is>
       </c>
       <c r="B2">
-        <v>2802.184053408214</v>
+        <v>11.80842865871961</v>
       </c>
       <c r="C2">
-        <v>11.80842865871961</v>
-      </c>
-      <c r="D2">
-        <v>0.6666043755859439</v>
-      </c>
-      <c r="E2">
-        <v>17.71429815224364</v>
-      </c>
-      <c r="F2">
-        <v>3.252590459909147e-070</v>
-      </c>
-      <c r="G2">
         <v>2.288400675449829e-067</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -436,24 +404,12 @@
         </is>
       </c>
       <c r="B3">
-        <v>2057.332878440754</v>
+        <v>10.3666650416821</v>
       </c>
       <c r="C3">
-        <v>10.3666650416821</v>
-      </c>
-      <c r="D3">
-        <v>0.5263636942056839</v>
-      </c>
-      <c r="E3">
-        <v>19.69487097191621</v>
-      </c>
-      <c r="F3">
-        <v>2.386040849209539e-086</v>
-      </c>
-      <c r="G3">
         <v>3.357457729943973e-083</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -466,24 +422,12 @@
         </is>
       </c>
       <c r="B4">
-        <v>72.14310141676802</v>
+        <v>9.699502656637243</v>
       </c>
       <c r="C4">
-        <v>9.699502656637243</v>
-      </c>
-      <c r="D4">
-        <v>1.28612771374283</v>
-      </c>
-      <c r="E4">
-        <v>7.541632571162158</v>
-      </c>
-      <c r="F4">
-        <v>4.641239113924877e-014</v>
-      </c>
-      <c r="G4">
         <v>9.923348282137195e-013</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Endochitinase 3 precursor (EC 3.2.1.14) (Fragment) - Solanum tuberosum (Potato), encodes a basic chitinase involved in ethylene/jasmonic acid mediated signalling pathway during systemic acquired resistance based on expression analyses. | basic chitinase (HCHIB) | FUNCTIONS IN: chitinase activity | INVOLVED IN: response to cadmium ion, defense response to fungus, jasmonic acid and ethylene-dependent systemic resistance, ethylene mediated signaling pathway | LOCATED IN: plasma membrane, vacuole | EXPRESSED IN: 10 plant structures | EXPRESSED DURING: LP.06 six leaves visible, LP.04 four leaves visible, 4 anthesis, petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: Chitin-binding, type 1, conserved site , Glycoside hydrolase, family 19 , Chitin-binding, type 1 , Glycoside hydrolase, family 19, catalytic | BEST Arabidopsis thaliana protein match is: Chitinase family protein</t>
         </is>
@@ -496,24 +440,12 @@
         </is>
       </c>
       <c r="B5">
-        <v>70.3814959628503</v>
+        <v>9.667405166388484</v>
       </c>
       <c r="C5">
-        <v>9.667405166388484</v>
-      </c>
-      <c r="D5">
-        <v>1.264083123639076</v>
-      </c>
-      <c r="E5">
-        <v>7.647760646117719</v>
-      </c>
-      <c r="F5">
-        <v>2.045094235557083e-014</v>
-      </c>
-      <c r="G5">
         <v>4.567782898743271e-013</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -526,24 +458,12 @@
         </is>
       </c>
       <c r="B6">
-        <v>61.78356046894319</v>
+        <v>9.481223512971504</v>
       </c>
       <c r="C6">
-        <v>9.481223512971504</v>
-      </c>
-      <c r="D6">
-        <v>1.22816038299266</v>
-      </c>
-      <c r="E6">
-        <v>7.7198578005493</v>
-      </c>
-      <c r="F6">
-        <v>1.164595575252888e-014</v>
-      </c>
-      <c r="G6">
         <v>2.689200490383951e-013</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Encodes a protein with gibberellin 2-oxidase activity which acts specifically on C-20 gibberellins. | gibberellin 2-oxidase 8 (GA2OX8) | FUNCTIONS IN: C-20 gibberellin 2-beta-dioxygenase activity | INVOLVED IN: gibberellin metabolic process | LOCATED IN: cellular_component unknown | EXPRESSED IN: sepal, flower | EXPRESSED DURING: petal differentiation and expansion stage | BEST Arabidopsis thaliana protein match is: gibberellin 2-oxidase 7</t>
         </is>
@@ -556,24 +476,12 @@
         </is>
       </c>
       <c r="B7">
-        <v>55.01838686947897</v>
+        <v>9.308087242827039</v>
       </c>
       <c r="C7">
-        <v>9.308087242827039</v>
-      </c>
-      <c r="D7">
-        <v>2.27618874642249</v>
-      </c>
-      <c r="E7">
-        <v>4.089330139012707</v>
-      </c>
-      <c r="F7">
-        <v>4.326207419891638e-005</v>
-      </c>
-      <c r="G7">
         <v>0.0002442945418897425</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Epidermis-specific secreted glycoprotein EP1 precursor (52/54 kDa medium protein) - Daucus carota (Carrot), Curculin-like (mannose-binding) lectin family protein | FUNCTIONS IN: sugar binding | LOCATED IN: apoplast, cell wall, plasma membrane, plant-type cell wall | EXPRESSED IN: leaf | CONTAINS InterPro DOMAIN/s: Curculin-like (mannose-binding) lectin , PAN-2 domain | BEST Arabidopsis thaliana protein match is: D-mannose binding lectin protein with Apple-like carbohydrate-binding domain</t>
         </is>
@@ -586,24 +494,12 @@
         </is>
       </c>
       <c r="B8">
-        <v>93.98373598653237</v>
+        <v>9.120328999165274</v>
       </c>
       <c r="C8">
-        <v>9.120328999165274</v>
-      </c>
-      <c r="D8">
-        <v>1.204146557956389</v>
-      </c>
-      <c r="E8">
-        <v>7.574102121459196</v>
-      </c>
-      <c r="F8">
-        <v>3.616198795040074e-014</v>
-      </c>
-      <c r="G8">
         <v>7.835909496778848e-013</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Plant stearoyl-acyl-carrier-protein desaturase family protein | FUNCTIONS IN: acyl-(acyl-carrier-protein) desaturase activity, oxidoreductase activity, transition metal ion binding | INVOLVED IN: oxidation reduction, fatty acid metabolic process, fatty acid biosynthetic process | LOCATED IN: membrane | EXPRESSED IN: 9 plant structures | EXPRESSED DURING: 6 growth stages | CONTAINS InterPro DOMAIN/s: Ribonucleotide reductase-related , Ferritin/ribonucleotide reductase-like , Fatty acid desaturase, type 2 , Stearoyl-ACP desaturase, conserved site | BEST Arabidopsis thaliana protein match is: Plant stearoyl-acyl-carrier-protein desaturase family protein</t>
         </is>
@@ -616,24 +512,12 @@
         </is>
       </c>
       <c r="B9">
-        <v>412.3280160869755</v>
+        <v>9.041836306911545</v>
       </c>
       <c r="C9">
-        <v>9.041836306911545</v>
-      </c>
-      <c r="D9">
-        <v>0.6733442666594045</v>
-      </c>
-      <c r="E9">
-        <v>13.42825171998553</v>
-      </c>
-      <c r="F9">
-        <v>4.130479955987333e-041</v>
-      </c>
-      <c r="G9">
         <v>6.690188901374015e-039</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -646,24 +530,12 @@
         </is>
       </c>
       <c r="B10">
-        <v>44.88504413744695</v>
+        <v>9.01505556413218</v>
       </c>
       <c r="C10">
-        <v>9.01505556413218</v>
-      </c>
-      <c r="D10">
-        <v>1.975772932943693</v>
-      </c>
-      <c r="E10">
-        <v>4.562799405648653</v>
-      </c>
-      <c r="F10">
-        <v>5.047603628953188e-006</v>
-      </c>
-      <c r="G10">
         <v>3.505297597231711e-005</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>putative laccase, a member of laccase family of genes (17 members in Arabidopsis). | laccase 14 (LAC14) | FUNCTIONS IN: laccase activity | INVOLVED IN: oxidation reduction, lignin catabolic process | LOCATED IN: endomembrane system, apoplast | EXPRESSED IN: central cell, fruit | CONTAINS InterPro DOMAIN/s: Multicopper oxidase, type 3 , Laccase , Multicopper oxidase, type 2 , Cupredoxin , Multicopper oxidase, copper-binding site , Multicopper oxidase, type 1 | BEST Arabidopsis thaliana protein match is: laccase 12</t>
         </is>
@@ -676,24 +548,12 @@
         </is>
       </c>
       <c r="B11">
-        <v>273.2253222072058</v>
+        <v>8.712305562149354</v>
       </c>
       <c r="C11">
-        <v>8.712305562149354</v>
-      </c>
-      <c r="D11">
-        <v>1.45690867217611</v>
-      </c>
-      <c r="E11">
-        <v>5.979994304746794</v>
-      </c>
-      <c r="F11">
-        <v>2.231454219664152e-009</v>
-      </c>
-      <c r="G11">
         <v>2.739310812514652e-008</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -706,24 +566,12 @@
         </is>
       </c>
       <c r="B12">
-        <v>256.5307594032519</v>
+        <v>8.675705470376325</v>
       </c>
       <c r="C12">
-        <v>8.675705470376325</v>
-      </c>
-      <c r="D12">
-        <v>0.7564351179439139</v>
-      </c>
-      <c r="E12">
-        <v>11.46919975629633</v>
-      </c>
-      <c r="F12">
-        <v>1.883933702379504e-030</v>
-      </c>
-      <c r="G12">
         <v>1.525715229329933e-028</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>CONTAINS InterPro DOMAIN/s: NTP Pyrophosphohydrolase MazG-related, RS21-C6 , EAR , NTP pyrophosphohydrolase MazG, putative catalytic core</t>
         </is>
@@ -736,24 +584,12 @@
         </is>
       </c>
       <c r="B13">
-        <v>34.24647761493085</v>
+        <v>8.616965716815235</v>
       </c>
       <c r="C13">
-        <v>8.616965716815235</v>
-      </c>
-      <c r="D13">
-        <v>1.277806750668862</v>
-      </c>
-      <c r="E13">
-        <v>6.74355939370701</v>
-      </c>
-      <c r="F13">
-        <v>1.545527545678335e-011</v>
-      </c>
-      <c r="G13">
         <v>2.485429083100146e-010</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Encodes a homeodomain leucine zipper class I (HD-Zip I) protein. | homeobox protein 21 (HB21) | FUNCTIONS IN: DNA binding, sequence-specific DNA binding transcription factor activity | INVOLVED IN: regulation of transcription, DNA-dependent, regulation of transcription | LOCATED IN: nucleus | EXPRESSED IN: 21 plant structures | EXPRESSED DURING: 13 growth stages | CONTAINS InterPro DOMAIN/s: Homeobox, conserved site , Homeobox , Homeodomain-like , Helix-turn-helix motif, lambda-like repressor , Homeodomain-related | BEST Arabidopsis thaliana protein match is: homeobox protein 40</t>
         </is>
@@ -766,24 +602,12 @@
         </is>
       </c>
       <c r="B14">
-        <v>32.72269077690012</v>
+        <v>8.559353688338298</v>
       </c>
       <c r="C14">
-        <v>8.559353688338298</v>
-      </c>
-      <c r="D14">
-        <v>1.288384491329961</v>
-      </c>
-      <c r="E14">
-        <v>6.643477739710085</v>
-      </c>
-      <c r="F14">
-        <v>3.063667681403875e-011</v>
-      </c>
-      <c r="G14">
         <v>4.766787434632124e-010</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Pectinacetylesterase family protein | CONTAINS InterPro DOMAIN/s: Pectinacetylesterase | BEST Arabidopsis thaliana protein match is: Pectinacetylesterase family protein</t>
         </is>
@@ -796,24 +620,12 @@
         </is>
       </c>
       <c r="B15">
-        <v>32.51224504933326</v>
+        <v>8.549744177374381</v>
       </c>
       <c r="C15">
-        <v>8.549744177374381</v>
-      </c>
-      <c r="D15">
-        <v>2.272848733056462</v>
-      </c>
-      <c r="E15">
-        <v>3.761686403950397</v>
-      </c>
-      <c r="F15">
-        <v>0.0001687715716722942</v>
-      </c>
-      <c r="G15">
         <v>0.0008178482919995763</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>encodes a protein whose sequence is similar to a 2-oxoglutarate-dependent dioxygenase | 2-oxoglutarate (2OG) and Fe(II)-dependent oxygenase superfamily protein | CONTAINS InterPro DOMAIN/s: Oxoglutarate/iron-dependent oxygenase | BEST Arabidopsis thaliana protein match is: 2-oxoglutarate (2OG) and Fe(II)-dependent oxygenase superfamily protein</t>
         </is>
@@ -826,24 +638,12 @@
         </is>
       </c>
       <c r="B16">
-        <v>30.97517625091868</v>
+        <v>8.481910034559697</v>
       </c>
       <c r="C16">
-        <v>8.481910034559697</v>
-      </c>
-      <c r="D16">
-        <v>1.255499319855509</v>
-      </c>
-      <c r="E16">
-        <v>6.755806156498634</v>
-      </c>
-      <c r="F16">
-        <v>1.420432230489808e-011</v>
-      </c>
-      <c r="G16">
         <v>2.299037472124194e-010</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Expansin-like B1 precursor (OsEXLB1) (Expensin-related 1) (OsEXPR1) (OsaEXPb3.1) - Oryza sativa (Rice), Encodes EXLB1 (expansin-like B1), a member of the expansin family. | expansin-like B1 (EXLB1) | INVOLVED IN: sexual reproduction, unidimensional cell growth, plant-type cell wall loosening | LOCATED IN: endomembrane system, extracellular region | EXPRESSED IN: 19 plant structures | EXPRESSED DURING: 9 growth stages | CONTAINS InterPro DOMAIN/s: Pollen allergen, N-terminal , Rare lipoprotein A , Pollen allergen/expansin, C-terminal , Barwin-related endoglucanase , Major pollen allergen Lol pI , Expansin/Lol pI , Expansin 45, endoglucanase-like | BEST Arabidopsis thaliana protein match is: expansin-like A2</t>
         </is>
@@ -856,24 +656,12 @@
         </is>
       </c>
       <c r="B17">
-        <v>150.8767200520643</v>
+        <v>8.32435604240673</v>
       </c>
       <c r="C17">
-        <v>8.32435604240673</v>
-      </c>
-      <c r="D17">
-        <v>0.9370992249076751</v>
-      </c>
-      <c r="E17">
-        <v>8.883110583328957</v>
-      </c>
-      <c r="F17">
-        <v>6.501627465642918e-019</v>
-      </c>
-      <c r="G17">
         <v>2.290729902370652e-017</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>SAUR-like auxin-responsive protein family | CONTAINS InterPro DOMAIN/s: Auxin responsive SAUR protein | BEST Arabidopsis thaliana protein match is: SAUR-like auxin-responsive protein family</t>
         </is>
@@ -886,24 +674,12 @@
         </is>
       </c>
       <c r="B18">
-        <v>400.2786212975988</v>
+        <v>8.320136047203871</v>
       </c>
       <c r="C18">
-        <v>8.320136047203871</v>
-      </c>
-      <c r="D18">
-        <v>0.5757475284427731</v>
-      </c>
-      <c r="E18">
-        <v>14.45101478717135</v>
-      </c>
-      <c r="F18">
-        <v>2.470193931781839e-047</v>
-      </c>
-      <c r="G18">
         <v>5.399412250498673e-045</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -916,24 +692,12 @@
         </is>
       </c>
       <c r="B19">
-        <v>27.16776667583742</v>
+        <v>8.291583926712498</v>
       </c>
       <c r="C19">
-        <v>8.291583926712498</v>
-      </c>
-      <c r="D19">
-        <v>2.057207595279039</v>
-      </c>
-      <c r="E19">
-        <v>4.030504235809915</v>
-      </c>
-      <c r="F19">
-        <v>5.56573259087297e-005</v>
-      </c>
-      <c r="G19">
         <v>0.0003045865424183618</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Member of Alpha-Expansin Gene Family. Naming convention from the Expansin Working Group (Kende et al, 2004. Plant Mol Bio). Containing a conserved root hair-specific cis-element RHE. Expressed specifically in root hair cell. | expansin A7 (EXPA7) | INVOLVED IN: plant-type cell wall modification involved in multidimensional cell growth, unidimensional cell growth, plant-type cell wall loosening | LOCATED IN: endomembrane system, extracellular region | EXPRESSED IN: sperm cell, root hair, root | CONTAINS InterPro DOMAIN/s: Barwin-related endoglucanase , Pollen allergen, N-terminal , Expansin , Rare lipoprotein A , Expansin/Lol pI , Expansin 45, endoglucanase-like , Pollen allergen/expansin, C-terminal | BEST Arabidopsis thaliana protein match is: expansin A18</t>
         </is>
@@ -946,24 +710,12 @@
         </is>
       </c>
       <c r="B20">
-        <v>49.14622383165182</v>
+        <v>8.185834990593699</v>
       </c>
       <c r="C20">
-        <v>8.185834990593699</v>
-      </c>
-      <c r="D20">
-        <v>1.234386802353368</v>
-      </c>
-      <c r="E20">
-        <v>6.631499117608305</v>
-      </c>
-      <c r="F20">
-        <v>3.322945286563464e-011</v>
-      </c>
-      <c r="G20">
         <v>5.148849978092899e-010</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -976,24 +728,12 @@
         </is>
       </c>
       <c r="B21">
-        <v>1184.286648620159</v>
+        <v>8.184583376025744</v>
       </c>
       <c r="C21">
-        <v>8.184583376025744</v>
-      </c>
-      <c r="D21">
-        <v>0.3158908306038021</v>
-      </c>
-      <c r="E21">
-        <v>25.90953134151287</v>
-      </c>
-      <c r="F21">
-        <v>5.200736261481205e-148</v>
-      </c>
-      <c r="G21">
         <v>5.854468809549392e-144</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Encodes a efflux-type boron transporter. Over-expression improved plant growth under B toxic conditions. | REQUIRES HIGH BORON 4 (BOR4) | CONTAINS InterPro DOMAIN/s: Bicarbonate transporter, eukaryotic , Bicarbonate transporter, C-terminal | BEST Arabidopsis thaliana protein match is: HCO3- transporter family</t>
         </is>
@@ -1006,24 +746,12 @@
         </is>
       </c>
       <c r="B22">
-        <v>318.4914987326198</v>
+        <v>8.153670649155048</v>
       </c>
       <c r="C22">
-        <v>8.153670649155048</v>
-      </c>
-      <c r="D22">
-        <v>1.267843025179194</v>
-      </c>
-      <c r="E22">
-        <v>6.431135785128151</v>
-      </c>
-      <c r="F22">
-        <v>1.266539525586109e-010</v>
-      </c>
-      <c r="G22">
         <v>1.823201462854582e-009</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -1036,24 +764,12 @@
         </is>
       </c>
       <c r="B23">
-        <v>129.0440570696695</v>
+        <v>8.097651367265954</v>
       </c>
       <c r="C23">
-        <v>8.097651367265954</v>
-      </c>
-      <c r="D23">
-        <v>0.8653457413083991</v>
-      </c>
-      <c r="E23">
-        <v>9.35770638337266</v>
-      </c>
-      <c r="F23">
-        <v>8.148632819269662e-021</v>
-      </c>
-      <c r="G23">
         <v>3.384839839354929e-019</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Calcium-binding EF-hand family protein | FUNCTIONS IN: calcium ion binding | INVOLVED IN: biological_process unknown | LOCATED IN: endomembrane system | CONTAINS InterPro DOMAIN/s: EF-Hand 1, calcium-binding site , EF-HAND 2 , S100/Calbindin-D9k, conserved site , EF-hand-like domain , Calcium-binding EF-hand , EF-hand | BEST Arabidopsis thaliana protein match is: Calcium-binding EF-hand family protein</t>
         </is>
@@ -1066,24 +782,12 @@
         </is>
       </c>
       <c r="B24">
-        <v>193.6835074888308</v>
+        <v>7.95114605799232</v>
       </c>
       <c r="C24">
-        <v>7.95114605799232</v>
-      </c>
-      <c r="D24">
-        <v>0.6859392425288441</v>
-      </c>
-      <c r="E24">
-        <v>11.59161856475644</v>
-      </c>
-      <c r="F24">
-        <v>4.544624097402506e-031</v>
-      </c>
-      <c r="G24">
         <v>3.96580104375659e-029</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Encodes a member of the ERF (ethylene response factor) subfamily B-3 of ERF/AP2 transcription factor family (ATERF-2). The protein contains one AP2 domain. Functions as activator of GCC boxÃ±dependent transcription. Positive regulator of JA-responsive defense genes and resistance to F. oxysporum and enhances JA inhibition of root elongation. | ethylene responsive element binding factor 2 (ERF2) | CONTAINS InterPro DOMAIN/s: DNA-binding, integrase-type , Pathogenesis-related transcriptional factor/ERF, DNA-binding | BEST Arabidopsis thaliana protein match is: ethylene responsive element binding factor 1</t>
         </is>
@@ -1096,24 +800,12 @@
         </is>
       </c>
       <c r="B25">
-        <v>20.92871865566407</v>
+        <v>7.914161714163936</v>
       </c>
       <c r="C25">
-        <v>7.914161714163936</v>
-      </c>
-      <c r="D25">
-        <v>1.266227654710334</v>
-      </c>
-      <c r="E25">
-        <v>6.25018864871847</v>
-      </c>
-      <c r="F25">
-        <v>4.099572076834067e-010</v>
-      </c>
-      <c r="G25">
         <v>5.553415507692069e-009</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Probable mannitol dehydrogenase (EC 1.1.1.255) (NAD-dependent mannitol dehydrogenase) - Fragaria ananassa (Strawberry), Encodes an aromatic alcohol:NADP+ oxidoreductase whose mRNA levels are increased in response to treatment with a variety of phytopathogenic bacteria. Though similar to mannitol dehydrogenases, this enzyme does not have mannitol dehydrogenase activity. | elicitor-activated gene 3-2 (ELI3-2) | CONTAINS InterPro DOMAIN/s: GroES-like , Alcohol dehydrogenase GroES-like , Alcohol dehydrogenase, zinc-containing, conserved site , Alcohol dehydrogenase, C-terminal , Alcohol dehydrogenase superfamily, zinc-containing | BEST Arabidopsis thaliana protein match is: elicitor-activated gene 3-1</t>
         </is>
@@ -1126,24 +818,12 @@
         </is>
       </c>
       <c r="B26">
-        <v>19.7209566607033</v>
+        <v>7.834674029017667</v>
       </c>
       <c r="C26">
-        <v>7.834674029017667</v>
-      </c>
-      <c r="D26">
-        <v>1.302291174641056</v>
-      </c>
-      <c r="E26">
-        <v>6.016069356514759</v>
-      </c>
-      <c r="F26">
-        <v>1.787030305947219e-009</v>
-      </c>
-      <c r="G26">
         <v>2.216705251134748e-008</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Pleiotropic drug resistance protein 1 (NtPDR1) - Nicotiana tabacum (Common tobacco), ABC transporter family involved in ABA transport and resistance to lead. Localizes to plasma membrane. Upregulated by lead. Expressed in leaves, flowers, stomata and roots. | pleiotropic drug resistance 12 (PDR12) | CONTAINS InterPro DOMAIN/s: ATPase, AAA+ type, core , ABC transporter-like , Plant PDR ABC transporter associated , ABC-2 type transporter | BEST Arabidopsis thaliana protein match is: pleiotropic drug resistance 11</t>
         </is>
@@ -1156,24 +836,12 @@
         </is>
       </c>
       <c r="B27">
-        <v>16.77095937041619</v>
+        <v>7.601774614371073</v>
       </c>
       <c r="C27">
-        <v>7.601774614371073</v>
-      </c>
-      <c r="D27">
-        <v>1.278854093990167</v>
-      </c>
-      <c r="E27">
-        <v>5.944207904634916</v>
-      </c>
-      <c r="F27">
-        <v>2.777968412434263e-009</v>
-      </c>
-      <c r="G27">
         <v>3.364345392014255e-008</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -1186,24 +854,12 @@
         </is>
       </c>
       <c r="B28">
-        <v>16.49015363827667</v>
+        <v>7.575182564303223</v>
       </c>
       <c r="C28">
-        <v>7.575182564303223</v>
-      </c>
-      <c r="D28">
-        <v>1.295587934382575</v>
-      </c>
-      <c r="E28">
-        <v>5.846907310010765</v>
-      </c>
-      <c r="F28">
-        <v>5.007963669142877e-009</v>
-      </c>
-      <c r="G28">
         <v>5.814816608926392e-008</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -1216,24 +872,12 @@
         </is>
       </c>
       <c r="B29">
-        <v>15.78754261657664</v>
+        <v>7.505742038100087</v>
       </c>
       <c r="C29">
-        <v>7.505742038100087</v>
-      </c>
-      <c r="D29">
-        <v>1.345851867779939</v>
-      </c>
-      <c r="E29">
-        <v>5.576945143659271</v>
-      </c>
-      <c r="F29">
-        <v>2.447790161607092e-008</v>
-      </c>
-      <c r="G29">
         <v>2.557287596214481e-007</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>nodulin MtN21 /EamA-like transporter family protein | LOCATED IN: endomembrane system, membrane | EXPRESSED IN: 15 plant structures | EXPRESSED DURING: 4 anthesis, C globular stage, petal differentiation and expansion stage, LP.08 eight leaves visible | CONTAINS InterPro DOMAIN/s: Protein of unknown function DUF6, transmembrane | BEST Arabidopsis thaliana protein match is: nodulin MtN21 /EamA-like transporter family protein</t>
         </is>
@@ -1246,24 +890,12 @@
         </is>
       </c>
       <c r="B30">
-        <v>27.77142213014857</v>
+        <v>7.35825265296244</v>
       </c>
       <c r="C30">
-        <v>7.35825265296244</v>
-      </c>
-      <c r="D30">
-        <v>1.241267807222191</v>
-      </c>
-      <c r="E30">
-        <v>5.928013769590406</v>
-      </c>
-      <c r="F30">
-        <v>3.066207924478771e-009</v>
-      </c>
-      <c r="G30">
         <v>3.689610112865582e-008</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Encodes a syntaxin localized at the plasma membrane (SYR1, Syntaxin Related Protein 1, also known as SYP121, PENETRATION1/PEN1). SYR1/PEN1 is a member of the SNARE superfamily proteins. SNARE proteins are involved in cell signaling, vesicle traffic, growth and development. SYR1/PEN1 functions in positioning anchoring of the KAT1 K+ channel protein at the plasma membrane. Transcription is upregulated by abscisic acid, suggesting a role in ABA signaling. Also functions in non-host resistance against barley powdery mildew, Blumeria graminis sp. hordei. SYR1/PEN1 is a nonessential component of the preinvasive resistance against Colletotrichum fungus. Required for mlo resistance. | syntaxin of plants 121 (SYP121) | FUNCTIONS IN: protein anchor, SNAP receptor activity | INVOLVED IN: in 13 processes | LOCATED IN: SNARE complex, plasma membrane | EXPRESSED IN: 24 plant structures | EXPRESSED DURING: 13 growth stages | CONTAINS InterPro DOMAIN/s: Target SNARE coiled-coil domain , t-SNARE , Syntaxin/epimorphin, conserved site , Syntaxin, N-terminal | BEST Arabidopsis thaliana protein match is: syntaxin of plants 122</t>
         </is>
@@ -1276,24 +908,12 @@
         </is>
       </c>
       <c r="B31">
-        <v>13.39235164492296</v>
+        <v>7.274998033695109</v>
       </c>
       <c r="C31">
-        <v>7.274998033695109</v>
-      </c>
-      <c r="D31">
-        <v>1.291982053734554</v>
-      </c>
-      <c r="E31">
-        <v>5.630881646278506</v>
-      </c>
-      <c r="F31">
-        <v>1.792907335692373e-008</v>
-      </c>
-      <c r="G31">
         <v>1.918513106263217e-007</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>2-oxoglutarate (2OG) and Fe(II)-dependent oxygenase superfamily protein | FUNCTIONS IN: oxidoreductase activity, acting on paired donors, with incorporation or reduction of molecular oxygen, 2-oxoglutarate as one donor, and incorporation of one atom each of oxygen into both donors, oxidoreductase activity | INVOLVED IN: biosynthetic process | LOCATED IN: cellular_component unknown | EXPRESSED IN: hypocotyl, root | CONTAINS InterPro DOMAIN/s: Oxoglutarate/iron-dependent oxygenase | BEST Arabidopsis thaliana protein match is: 2-oxoglutarate (2OG) and Fe(II)-dependent oxygenase superfamily protein</t>
         </is>
@@ -1306,24 +926,12 @@
         </is>
       </c>
       <c r="B32">
-        <v>25.77623329184403</v>
+        <v>7.239073125841777</v>
       </c>
       <c r="C32">
-        <v>7.239073125841777</v>
-      </c>
-      <c r="D32">
-        <v>1.244537117643081</v>
-      </c>
-      <c r="E32">
-        <v>5.816679167875058</v>
-      </c>
-      <c r="F32">
-        <v>6.002819701478562e-009</v>
-      </c>
-      <c r="G32">
         <v>6.923539075772968e-008</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -1336,24 +944,12 @@
         </is>
       </c>
       <c r="B33">
-        <v>47.74722495266406</v>
+        <v>7.238628410124997</v>
       </c>
       <c r="C33">
-        <v>7.238628410124997</v>
-      </c>
-      <c r="D33">
-        <v>1.21795155609611</v>
-      </c>
-      <c r="E33">
-        <v>5.943281055715313</v>
-      </c>
-      <c r="F33">
-        <v>2.793728202848492e-009</v>
-      </c>
-      <c r="G33">
         <v>3.381612728974782e-008</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Cytochrome P450 71D8 (EC 1.14.-.-) (P450 CP7) - Glycine max (Soybean), putative cytochrome P450 | cytochrome P450, family 71, subfamily B, polypeptide 35 (CYP71B35) | FUNCTIONS IN: electron carrier activity, monooxygenase activity, iron ion binding, oxygen binding, heme binding | INVOLVED IN: oxidation reduction | LOCATED IN: endomembrane system | EXPRESSED IN: 17 plant structures | EXPRESSED DURING: 10 growth stages | CONTAINS InterPro DOMAIN/s: Cytochrome P450 , Cytochrome P450, conserved site , Cytochrome P450, E-class, group I | BEST Arabidopsis thaliana protein match is: cytochrome P450, family 71, subfamily B, polypeptide 34</t>
         </is>
@@ -1366,24 +962,12 @@
         </is>
       </c>
       <c r="B34">
-        <v>86.05820844223015</v>
+        <v>7.106157989509311</v>
       </c>
       <c r="C34">
-        <v>7.106157989509311</v>
-      </c>
-      <c r="D34">
-        <v>0.7702668787709163</v>
-      </c>
-      <c r="E34">
-        <v>9.225579062737735</v>
-      </c>
-      <c r="F34">
-        <v>2.820328419908769e-020</v>
-      </c>
-      <c r="G34">
         <v>1.123838478687186e-018</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>hypothetical protein</t>
         </is>
@@ -1396,24 +980,12 @@
         </is>
       </c>
       <c r="B35">
-        <v>21.44387485973579</v>
+        <v>6.977006162204921</v>
       </c>
       <c r="C35">
-        <v>6.977006162204921</v>
-      </c>
-      <c r="D35">
-        <v>1.307110014954898</v>
-      </c>
-      <c r="E35">
-        <v>5.337734454161966</v>
-      </c>
-      <c r="F35">
-        <v>9.411516131357335e-008</v>
-      </c>
-      <c r="G35">
         <v>9.094028934823134e-007</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Encodes an auxin efflux carrier that is similar to bacterial membrane transporters. Root-specific role in the transport of auxin. Acts downstream of CTR1 and ethylene biosynthesis, in the same pathway as EIN2 and AUX1, and independent from EIN3 and EIN5/AIN1 pathway. In the root, the protein localizes apically in epidermal and lateral root cap cells and predominantly basally in cortical cells. Functions may be regulated by phosphorylation status. EIR1 expression is induced by brassinolide treatment in the brassinosteroid-insensitive br1 mutant. Gravistimulation resulted in asymmetric PIN2 distribution, with more protein degraded at the upper side of the gravistimulated root. Protein turnover is affected by the proteasome and by endosomal cycling. Plasma membrane-localized PIN proteins mediate a saturable efflux of auxin. PINs mediate auxin efflux from mammalian and yeast cells without needing additional plant-specific factors. The action of PINs in auxin efflux is distinct from PGPs, rate-limiting, specific to auxins and sensitive to auxin transport inhibitors. Membrane sterol composition is essential for the acquisition of PIN2 polarity. | ETHYLENE INSENSITIVE ROOT 1 (EIR1) | CONTAINS InterPro DOMAIN/s: Auxin efflux carrier, subgroup , Auxin efflux carrier | BEST Arabidopsis thaliana protein match is: Auxin efflux carrier family protein</t>
         </is>
@@ -1426,24 +998,12 @@
         </is>
       </c>
       <c r="B36">
-        <v>10.34058439642208</v>
+        <v>6.907406412175893</v>
       </c>
       <c r="C36">
-        <v>6.907406412175893</v>
-      </c>
-      <c r="D36">
-        <v>1.380080119972035</v>
-      </c>
-      <c r="E36">
-        <v>5.00507638086683</v>
-      </c>
-      <c r="F36">
-        <v>5.583988490245859e-007</v>
-      </c>
-      <c r="G36">
         <v>4.663127480318816e-006</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>unknown protein | FUNCTIONS IN: molecular_function unknown | INVOLVED IN: N-terminal protein myristoylation | LOCATED IN: cellular_component unknown | BEST Arabidopsis thaliana protein match is: unknown protein</t>
         </is>
@@ -1456,24 +1016,12 @@
         </is>
       </c>
       <c r="B37">
-        <v>152.575310477612</v>
+        <v>6.906320362998218</v>
       </c>
       <c r="C37">
-        <v>6.906320362998218</v>
-      </c>
-      <c r="D37">
-        <v>1.015620782456786</v>
-      </c>
-      <c r="E37">
-        <v>6.800097518969468</v>
-      </c>
-      <c r="F37">
-        <v>1.045483568336254e-011</v>
-      </c>
-      <c r="G37">
         <v>1.716850259483765e-010</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>senescence-associated gene 29 (SAG29) | LOCATED IN: endomembrane system, integral to membrane, membrane | EXPRESSED IN: 13 plant structures | EXPRESSED DURING: LP.04 four leaves visible, 4 anthesis, C globular stage, petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: MtN3/saliva-related transmembrane protein, conserved region , RAG1-activating protein 1 homologue , RAG1-activating protein-1-related | BEST Arabidopsis thaliana protein match is: homolog of Medicago truncatula MTN3</t>
         </is>
@@ -1486,24 +1034,12 @@
         </is>
       </c>
       <c r="B38">
-        <v>273.0090789253572</v>
+        <v>6.900144619334211</v>
       </c>
       <c r="C38">
-        <v>6.900144619334211</v>
-      </c>
-      <c r="D38">
-        <v>1.005868984344491</v>
-      </c>
-      <c r="E38">
-        <v>6.85988406713915</v>
-      </c>
-      <c r="F38">
-        <v>6.891645380472079e-012</v>
-      </c>
-      <c r="G38">
         <v>1.156173651981732e-010</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Zinc finger protein 622 | FUNCTIONS IN: sequence-specific DNA binding transcription factor activity | INVOLVED IN: regulation of transcription | LOCATED IN: intracellular | EXPRESSED IN: 25 plant structures | EXPRESSED DURING: 15 growth stages | CONTAINS InterPro DOMAIN/s: Zinc finger, C2H2-like , Zinc finger, C2H2-type | BEST Arabidopsis thaliana protein match is: Zinc finger protein 622</t>
         </is>
@@ -1516,24 +1052,12 @@
         </is>
       </c>
       <c r="B39">
-        <v>20.23220094084405</v>
+        <v>6.888350825304919</v>
       </c>
       <c r="C39">
-        <v>6.888350825304919</v>
-      </c>
-      <c r="D39">
-        <v>1.255179585450871</v>
-      </c>
-      <c r="E39">
-        <v>5.487940455015102</v>
-      </c>
-      <c r="F39">
-        <v>4.066470856663976e-008</v>
-      </c>
-      <c r="G39">
         <v>4.140774530390446e-007</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>C2H2 and C2HC zinc fingers superfamily protein | FUNCTIONS IN: sequence-specific DNA binding transcription factor activity, zinc ion binding, nucleic acid binding | INVOLVED IN: response to chitin, regulation of transcription | LOCATED IN: intracellular | EXPRESSED IN: cotyledon, root, petiole | CONTAINS InterPro DOMAIN/s: Zinc finger, C2H2-like , Zinc finger, C2H2-type | BEST Arabidopsis thaliana protein match is: C2H2-type zinc finger family protein</t>
         </is>
@@ -1546,24 +1070,12 @@
         </is>
       </c>
       <c r="B40">
-        <v>1780.996456675882</v>
+        <v>6.834833485617828</v>
       </c>
       <c r="C40">
-        <v>6.834833485617828</v>
-      </c>
-      <c r="D40">
-        <v>0.7929072523811892</v>
-      </c>
-      <c r="E40">
-        <v>8.619965910378621</v>
-      </c>
-      <c r="F40">
-        <v>6.697404831383754e-018</v>
-      </c>
-      <c r="G40">
         <v>2.147939777404186e-016</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Acidic endochitinase Q precursor (EC 3.2.1.14) (Pathogenesis-related protein Q) (PR-Q) - Nicotiana tabacum (Common tobacco), encodes a basic chitinase involved in ethylene/jasmonic acid mediated signalling pathway during systemic acquired resistance based on expression analyses. | basic chitinase (HCHIB) | FUNCTIONS IN: chitinase activity | INVOLVED IN: response to cadmium ion, defense response to fungus, jasmonic acid and ethylene-dependent systemic resistance, ethylene mediated signaling pathway | LOCATED IN: plasma membrane, vacuole | EXPRESSED IN: 10 plant structures | EXPRESSED DURING: LP.06 six leaves visible, LP.04 four leaves visible, 4 anthesis, petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: Chitin-binding, type 1, conserved site , Glycoside hydrolase, family 19 , Chitin-binding, type 1 , Glycoside hydrolase, family 19, catalytic | BEST Arabidopsis thaliana protein match is: Chitinase family protein</t>
         </is>
@@ -1576,24 +1088,12 @@
         </is>
       </c>
       <c r="B41">
-        <v>7045.455900577197</v>
+        <v>6.699135171672483</v>
       </c>
       <c r="C41">
-        <v>6.699135171672483</v>
-      </c>
-      <c r="D41">
-        <v>0.2796235384512113</v>
-      </c>
-      <c r="E41">
-        <v>23.95769400808633</v>
-      </c>
-      <c r="F41">
-        <v>7.682462363291509e-127</v>
-      </c>
-      <c r="G41">
         <v>4.324073941178626e-123</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Xyloglucan endotransglucosylase/hydrolase protein A precursor (EC 2.4.1.207) (VaXTH1) - Phaseolus angularis (Adzuki bean) (Vigna angularis), EXGT-A4, endoxyloglucan transferase, | xyloglucan endotransglucosylase/hydrolase 5 (XTH5) | FUNCTIONS IN: hydrolase activity, acting on glycosyl bonds, hydrolase activity, hydrolyzing O-glycosyl compounds, xyloglucan:xyloglucosyl transferase activity | INVOLVED IN: carbohydrate metabolic process, cellular glucan metabolic process | LOCATED IN: endomembrane system, cell wall, apoplast | EXPRESSED IN: 16 plant structures | EXPRESSED DURING: 6 growth stages | CONTAINS InterPro DOMAIN/s: Xyloglucan endotransglucosylase/hydrolase , Xyloglucan endo-transglycosylase, C-terminal , Concanavalin A-like lectin/glucanase , Concanavalin A-like lectin/glucanase, subgroup , Glycoside hydrolase, family 16 , Glycoside hydrolase, family 16, active site | BEST Arabidopsis thaliana protein match is: xyloglucan endotransglucosylase/hydrolase 4</t>
         </is>
@@ -1606,24 +1106,12 @@
         </is>
       </c>
       <c r="B42">
-        <v>8.43797232609024</v>
+        <v>6.598765850418899</v>
       </c>
       <c r="C42">
-        <v>6.598765850418899</v>
-      </c>
-      <c r="D42">
-        <v>1.352520020963878</v>
-      </c>
-      <c r="E42">
-        <v>4.878867409087421</v>
-      </c>
-      <c r="F42">
-        <v>1.066967580324258e-006</v>
-      </c>
-      <c r="G42">
         <v>8.479247477380991e-006</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Alpha-1,4-glucan-protein synthase (UDP-forming) (EC 2.4.1.112) (UPTG) (Reversibly glycosylated polypeptide) - Pisum sativum (Garden pea), Encodes a reversible autoglycosylated protein peripherally associated with cell membranes. Highly expressed in roots ans suspension-cultured cells. | reversibly glycosylated polypeptide 3 (RGP3) | FUNCTIONS IN: transferase activity, transferring hexosyl groups, glycogenin glucosyltransferase activity | INVOLVED IN: cellulose biosynthetic process, cellular cell wall organization | LOCATED IN: membrane | EXPRESSED IN: leaf whorl, sepal, flower, cultured cell | EXPRESSED DURING: petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: Alpha-1,4-glucan-protein synthase, UDP-forming | BEST Arabidopsis thaliana protein match is: reversibly glycosylated polypeptide 1</t>
         </is>
@@ -1636,24 +1124,12 @@
         </is>
       </c>
       <c r="B43">
-        <v>8.282086676006657</v>
+        <v>6.577971859415308</v>
       </c>
       <c r="C43">
-        <v>6.577971859415308</v>
-      </c>
-      <c r="D43">
-        <v>1.644284956293357</v>
-      </c>
-      <c r="E43">
-        <v>4.000506015845184</v>
-      </c>
-      <c r="F43">
-        <v>6.320718021998223e-005</v>
-      </c>
-      <c r="G43">
         <v>0.0003410128098424826</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Encodes an alpha-dioxygenase involved in protection against oxidative stress and cell death. Induced in response to Salicylic acid and oxidative stress. Independent of NPR1 in induction by salicylic acid. | DOX1 | FUNCTIONS IN: lipoxygenase activity | INVOLVED IN: in 6 processes | LOCATED IN: endomembrane system | EXPRESSED IN: 9 plant structures | EXPRESSED DURING: 4 anthesis | CONTAINS InterPro DOMAIN/s: Haem peroxidase , Haem peroxidase, animal | BEST Arabidopsis thaliana protein match is: alpha dioxygenase</t>
         </is>
@@ -1666,24 +1142,12 @@
         </is>
       </c>
       <c r="B44">
-        <v>16.18228315157886</v>
+        <v>6.565207926192951</v>
       </c>
       <c r="C44">
-        <v>6.565207926192951</v>
-      </c>
-      <c r="D44">
-        <v>1.339481718267585</v>
-      </c>
-      <c r="E44">
-        <v>4.901304614059267</v>
-      </c>
-      <c r="F44">
-        <v>9.52023047403005e-007</v>
-      </c>
-      <c r="G44">
         <v>7.633136356563837e-006</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Pathogen-related protein - Hordeum vulgare (Barley), pathogenesis-related family protein | FUNCTIONS IN: molecular_function unknown | INVOLVED IN: biological_process unknown | LOCATED IN: cellular_component unknown | EXPRESSED IN: 14 plant structures | EXPRESSED DURING: M germinated pollen stage, LP.04 four leaves visible, 4 anthesis, C globular stage, petal differentiation and expansion stage</t>
         </is>
@@ -1696,24 +1160,12 @@
         </is>
       </c>
       <c r="B45">
-        <v>166.0891815129383</v>
+        <v>6.564424591699498</v>
       </c>
       <c r="C45">
-        <v>6.564424591699498</v>
-      </c>
-      <c r="D45">
-        <v>0.9114487747937835</v>
-      </c>
-      <c r="E45">
-        <v>7.202187081972553</v>
-      </c>
-      <c r="F45">
-        <v>5.925431392438483e-013</v>
-      </c>
-      <c r="G45">
         <v>1.129594939622015e-011</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>encodes an EP3 chitinase that is expressed during somatic embryogenesis in nursing cells surrounding the embryos but not in embryos themselves. The gene is also expressed in mature pollen and growing pollen tubes until they enter the receptive synergid, but not in endosperm and integuments as in carrot. Post-embryonically, expression is found in hydathodes, stipules, root epidermis and emerging root hairs. | homolog of carrot EP3-3 chitinase (EP3) | FUNCTIONS IN: chitinase activity | INVOLVED IN: somatic embryogenesis, plant-type hypersensitive response | LOCATED IN: cell wall | EXPRESSED IN: 18 plant structures | EXPRESSED DURING: 6 growth stages | CONTAINS InterPro DOMAIN/s: Chitin-binding, type 1, conserved site , Glycoside hydrolase, family 19 , Chitin-binding, type 1 , Glycoside hydrolase, family 19, catalytic | BEST Arabidopsis thaliana protein match is: Chitinase family protein</t>
         </is>
@@ -1726,24 +1178,12 @@
         </is>
       </c>
       <c r="B46">
-        <v>237.693091920304</v>
+        <v>6.554390629474169</v>
       </c>
       <c r="C46">
-        <v>6.554390629474169</v>
-      </c>
-      <c r="D46">
-        <v>0.3990137494692118</v>
-      </c>
-      <c r="E46">
-        <v>16.42647813062369</v>
-      </c>
-      <c r="F46">
-        <v>1.236340075235048e-060</v>
-      </c>
-      <c r="G46">
         <v>4.799131112731357e-058</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>encodes a member of the ERF (ethylene response factor) subfamily B-4 of ERF/AP2 transcription factor family. The protein contains one AP2 domain. There are 7 members in this subfamily. | ethylene response factor 110 (ERF110) | FUNCTIONS IN: DNA binding, sequence-specific DNA binding transcription factor activity | INVOLVED IN: regulation of transcription, DNA-dependent | LOCATED IN: nucleus | CONTAINS InterPro DOMAIN/s: DNA-binding, integrase-type , Pathogenesis-related transcriptional factor/ERF, DNA-binding | BEST Arabidopsis thaliana protein match is: Integrase-type DNA-binding superfamily protein</t>
         </is>
@@ -1756,24 +1196,12 @@
         </is>
       </c>
       <c r="B47">
-        <v>16.02046498139965</v>
+        <v>6.545548973125926</v>
       </c>
       <c r="C47">
-        <v>6.545548973125926</v>
-      </c>
-      <c r="D47">
-        <v>1.308042515114092</v>
-      </c>
-      <c r="E47">
-        <v>5.004079682039233</v>
-      </c>
-      <c r="F47">
-        <v>5.612953774663977e-007</v>
-      </c>
-      <c r="G47">
         <v>4.68384141151908e-006</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>embryo defective 1075 (emb1075) | FUNCTIONS IN: pyridoxal phosphate binding, carboxy-lyase activity, catalytic activity | INVOLVED IN: cellular amino acid metabolic process, embryo development ending in seed dormancy | LOCATED IN: cellular_component unknown | EXPRESSED IN: 25 plant structures | EXPRESSED DURING: 15 growth stages | CONTAINS InterPro DOMAIN/s: Pyridoxal phosphate-dependent transferase, major domain , Pyridoxal phosphate-dependent decarboxylase , Pyridoxal-phosphate binding site , Pyridoxal phosphate-dependent transferase, major region, subdomain 1 | BEST Arabidopsis thaliana protein match is: glutamate decarboxylase 2</t>
         </is>
@@ -1786,24 +1214,12 @@
         </is>
       </c>
       <c r="B48">
-        <v>8.164705347472971</v>
+        <v>6.542992357491383</v>
       </c>
       <c r="C48">
-        <v>6.542992357491383</v>
-      </c>
-      <c r="D48">
-        <v>1.730115663514621</v>
-      </c>
-      <c r="E48">
-        <v>3.781823663858234</v>
-      </c>
-      <c r="F48">
-        <v>0.0001556836317281542</v>
-      </c>
-      <c r="G48">
         <v>0.0007611425156846177</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>embryo defective 1075 (emb1075) | FUNCTIONS IN: pyridoxal phosphate binding, carboxy-lyase activity, catalytic activity | INVOLVED IN: cellular amino acid metabolic process, embryo development ending in seed dormancy | LOCATED IN: cellular_component unknown | EXPRESSED IN: 25 plant structures | EXPRESSED DURING: 15 growth stages | CONTAINS InterPro DOMAIN/s: Pyridoxal phosphate-dependent transferase, major domain , Pyridoxal phosphate-dependent decarboxylase , Pyridoxal-phosphate binding site , Pyridoxal phosphate-dependent transferase, major region, subdomain 1 | BEST Arabidopsis thaliana protein match is: glutamate decarboxylase 2</t>
         </is>
@@ -1816,24 +1232,12 @@
         </is>
       </c>
       <c r="B49">
-        <v>7.476874280334911</v>
+        <v>6.432807519012405</v>
       </c>
       <c r="C49">
-        <v>6.432807519012405</v>
-      </c>
-      <c r="D49">
-        <v>1.376748789535361</v>
-      </c>
-      <c r="E49">
-        <v>4.67246281086865</v>
-      </c>
-      <c r="F49">
-        <v>2.976094157174758e-006</v>
-      </c>
-      <c r="G49">
         <v>2.174035816178861e-005</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Putative membrane lipoprotein | FUNCTIONS IN: molecular_function unknown | INVOLVED IN: biological_process unknown | LOCATED IN: endomembrane system | EXPRESSED IN: 19 plant structures | EXPRESSED DURING: 10 growth stages | BEST Arabidopsis thaliana protein match is: unknown protein</t>
         </is>
@@ -1846,24 +1250,12 @@
         </is>
       </c>
       <c r="B50">
-        <v>126.3980000042033</v>
+        <v>6.429602405323925</v>
       </c>
       <c r="C50">
-        <v>6.429602405323925</v>
-      </c>
-      <c r="D50">
-        <v>1.003144114148885</v>
-      </c>
-      <c r="E50">
-        <v>6.409450361754956</v>
-      </c>
-      <c r="F50">
-        <v>1.460451872579764e-010</v>
-      </c>
-      <c r="G50">
         <v>2.083689065859366e-009</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Kunitz family trypsin and protease inhibitor protein | FUNCTIONS IN: endopeptidase inhibitor activity | INVOLVED IN: biological_process unknown | LOCATED IN: apoplast, cell wall | EXPRESSED IN: 17 plant structures | EXPRESSED DURING: 13 growth stages | CONTAINS InterPro DOMAIN/s: Proteinase inhibitor I3, Kunitz legume , Kunitz inhibitor ST1-like | BEST Arabidopsis thaliana protein match is: kunitz trypsin inhibitor 1</t>
         </is>
@@ -1876,26 +1268,914 @@
         </is>
       </c>
       <c r="B51">
-        <v>7.24531861659876</v>
+        <v>6.389364785905401</v>
       </c>
       <c r="C51">
-        <v>6.389364785905401</v>
-      </c>
-      <c r="D51">
-        <v>1.391441584914938</v>
-      </c>
-      <c r="E51">
-        <v>4.591902998425907</v>
-      </c>
-      <c r="F51">
-        <v>4.392225180799491e-006</v>
-      </c>
-      <c r="G51">
         <v>3.10281009477627e-005</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Encodes a DON-Glucosyltransferase. The UGT73C5 glucosylates both brassinolide and castasterone in the 23-O position. The enzyme is presumably involved in the homeostasis of those steroid hormones hence regulating BR activity. Transgenic plants overexpressing UGT73C5 show a typical BR-deficient phenotype. | don-glucosyltransferase 1 (DOGT1) | CONTAINS InterPro DOMAIN/s: UDP-glucuronosyl/UDP-glucosyltransferase | BEST Arabidopsis thaliana protein match is: UDP-glucosyl transferase 73C6</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sopen07g030080</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>6.377207342294671</v>
+      </c>
+      <c r="C52">
+        <v>1.68617241011162e-007</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Gibberellin 2-beta-dioxygenase 1 (EC 1.14.11.13) (Gibberellin 2-beta-hydroxylase 1) (Gibberellin 2-oxidase 1) (GA 2-oxidase 1) (Protein SLENDER) - Pisum sativum (Garden pea), Encodes a gibberellin 2-oxidase that acts on C-19 gibberellins. AtGA2OX2 expression is responsive to cytokinin and KNOX activities. | gibberellin 2-oxidase (GA2OX2) | CONTAINS InterPro DOMAIN/s: Oxoglutarate/iron-dependent oxygenase | BEST Arabidopsis thaliana protein match is: gibberellin 2-oxidase 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sopen08g022580</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>6.371625773886813</v>
+      </c>
+      <c r="C53">
+        <v>4.996278213321196e-005</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sopen04g008340</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>6.31506432266035</v>
+      </c>
+      <c r="C54">
+        <v>1.157557210188783e-005</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Zeatin O-xylosyltransferase (EC 2.4.2.40) (Zeatin O-beta-D-xylosyltransferase) - Phaseolus vulgaris (Kidney bean) (French bean), UDP-glycosyltransferase 73B4 (UGT73B4) | FUNCTIONS IN: quercetin 3-O-glucosyltransferase activity, UDP-glycosyltransferase activity, quercetin 7-O-glucosyltransferase activity, UDP-glucosyltransferase activity, transferase activity, transferring glycosyl groups | INVOLVED IN: response to other organism | LOCATED IN: endomembrane system | EXPRESSED IN: root | CONTAINS InterPro DOMAIN/s: UDP-glucuronosyl/UDP-glucosyltransferase | BEST Arabidopsis thaliana protein match is: UDP-glucosyl transferase 73B5 .</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sopen06g030570</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>6.312859920842018</v>
+      </c>
+      <c r="C55">
+        <v>0.001584413858269702</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Encodes a U-box-domain-containing E3 ubiquitin ligase that acts as a negative regulator of PAMP-triggered immunity. | plant U-box 24 (PUB24) | FUNCTIONS IN: ubiquitin-protein ligase activity, binding | INVOLVED IN: respiratory burst involved in defense response, protein autoubiquitination, response to chitin, defense response | LOCATED IN: ubiquitin ligase complex | EXPRESSED IN: 21 plant structures | EXPRESSED DURING: 10 growth stages | CONTAINS InterPro DOMAIN/s: U box domain , Armadillo-type fold | BEST Arabidopsis thaliana protein match is: plant U-box 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sopen07g034510</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>6.296399616072113</v>
+      </c>
+      <c r="C56">
+        <v>9.124832507229799e-031</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Encodes a transcription factor involved in shoot apical meristem formation and auxin-mediated lateral root formation. The gene is thought not to be involved in stress responses (NaCl, auxins, ethylene). NAC1 (NAC1) | NAC domain containing protein 1 (NAC1) | CONTAINS InterPro DOMAIN/s: No apical meristem (NAM) protein | BEST Arabidopsis thaliana protein match is: NAC (No Apical Meristem) domain transcriptional regulator superfamily protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sopen02g023510</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>6.285875566157659</v>
+      </c>
+      <c r="C57">
+        <v>0.005717374041858479</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sopen11g008340</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>6.260515021455674</v>
+      </c>
+      <c r="C58">
+        <v>1.189789789394507e-005</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CONTAINS InterPro DOMAIN/s: Protein BYPASS related | BEST Arabidopsis thaliana protein match is: unknown protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sopen07g032620</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>6.249712745047076</v>
+      </c>
+      <c r="C59">
+        <v>9.246679648843147e-006</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Encodes an unusual palmitate desaturase that is highly substrate specific. It introduces a delta-3 trans double bond at palmitate at the sn-2 position of phosphatidylglycerol. | fatty acid desaturase A (FADA) | FUNCTIONS IN: Delta 3-trans hexadecenoic acid phosphatidylglycerol desaturase activity | INVOLVED IN: response to karrikin, phosphatidylglycerol metabolic process, unsaturated fatty acid biosynthetic process | LOCATED IN: chloroplast | EXPRESSED IN: 20 plant structures | EXPRESSED DURING: 13 growth stages | CONTAINS InterPro DOMAIN/s: Kua-ubiquitin conjugating enzyme hybrid, localisation | BEST Arabidopsis thaliana protein match is: Kua-ubiquitin conjugating enzyme hybrid localisation domain</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sopen02g023880</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>6.246140653743563</v>
+      </c>
+      <c r="C60">
+        <v>4.207286250006095e-023</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>member of Myosin-like proteins | myosin 1 (ATM1) | CONTAINS InterPro DOMAIN/s: Myosin head, motor domain , IQ calmodulin-binding region | BEST Arabidopsis thaliana protein match is: P-loop containing nucleoside triphosphate hydrolases superfamily protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sopen09g034580</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>6.214031628964462</v>
+      </c>
+      <c r="C61">
+        <v>7.001612754100274e-009</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Pleiotropic drug resistance protein 1 (NpPDR1) - Nicotiana plumbaginifolia (Leadwort-leaved tobacco), ABC transporter family involved in ABA transport and resistance to lead. Localizes to plasma membrane. Upregulated by lead. Expressed in leaves, flowers, stomata and roots. | pleiotropic drug resistance 12 (PDR12) | CONTAINS InterPro DOMAIN/s: ATPase, AAA+ type, core , ABC transporter-like , Plant PDR ABC transporter associated , ABC-2 type transporter | BEST Arabidopsis thaliana protein match is: pleiotropic drug resistance 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sopen05g004060</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>6.199255978780966</v>
+      </c>
+      <c r="C62">
+        <v>9.945027490578364e-007</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Encodes a protein whose expression is responsive to nematode infection. | At17.1 | FUNCTIONS IN: molecular_function unknown | INVOLVED IN: N-terminal protein myristoylation, response to nematode | LOCATED IN: plasma membrane | BEST Arabidopsis thaliana protein match is: plastid movement impaired 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sopen03g006370</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>6.190466052052838</v>
+      </c>
+      <c r="C63">
+        <v>3.167053963263782e-054</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SAUR-like auxin-responsive protein family | CONTAINS InterPro DOMAIN/s: Auxin responsive SAUR protein | BEST Arabidopsis thaliana protein match is: SAUR-like auxin-responsive protein family</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sopen01g005390</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>6.114643429444437</v>
+      </c>
+      <c r="C64">
+        <v>1.382606497770183e-014</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Encodes a NAC domain transcription factor that interacts with VND7 and negatively regulates xylem vessel formation. | NAC domain containing protein 83 (NAC083) | CONTAINS InterPro DOMAIN/s: No apical meristem (NAM) protein | BEST Arabidopsis thaliana protein match is: NAC domain containing protein 41</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sopen03g032980</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>6.090276227148271</v>
+      </c>
+      <c r="C65">
+        <v>0.0002065290985587559</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>22.7 kDa class IV heat shock protein precursor - Pisum sativum (Garden pea), Columbia endomembrane-localized small heat shock protein | ATHSP22.0 | FUNCTIONS IN: molecular_function unknown | INVOLVED IN: response to heat | LOCATED IN: endomembrane system | EXPRESSED IN: 8 plant structures | EXPRESSED DURING: M germinated pollen stage, 4 anthesis, C globular stage, petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: Heat shock protein Hsp20 , HSP20-like chaperone | BEST Arabidopsis thaliana protein match is: HSP20-like chaperones superfamily protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sopen10g001530</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>6.038219189401335</v>
+      </c>
+      <c r="C66">
+        <v>0.0004071275415088087</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Member of the R2R3 factor gene family. | myb domain protein 58 (MYB58) | CONTAINS InterPro DOMAIN/s: SANT, DNA-binding , Homeodomain-like , Myb, DNA-binding , HTH transcriptional regulator, Myb-type, DNA-binding , Homeodomain-related , Myb transcription factor | BEST Arabidopsis thaliana protein match is: myb domain protein 63</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sopen06g023060</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>6.027465124793145</v>
+      </c>
+      <c r="C67">
+        <v>3.357390666296562e-005</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>basic helix-loop-helix (bHLH) DNA-binding superfamily protein | FUNCTIONS IN: DNA binding, sequence-specific DNA binding transcription factor activity | INVOLVED IN: regulation of transcription | LOCATED IN: nucleus | EXPRESSED IN: sepal | EXPRESSED DURING: petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: Helix-loop-helix DNA-binding domain , Helix-loop-helix DNA-binding | BEST Arabidopsis thaliana protein match is: basic helix-loop-helix (bHLH) DNA-binding superfamily protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sopen05g033130</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>5.999499131456563</v>
+      </c>
+      <c r="C68">
+        <v>0.0008815727055485344</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>C2H2 and C2HC zinc fingers superfamily protein | FUNCTIONS IN: sequence-specific DNA binding transcription factor activity, zinc ion binding, nucleic acid binding | INVOLVED IN: response to chitin, regulation of transcription | LOCATED IN: intracellular | EXPRESSED IN: cotyledon, root, petiole | CONTAINS InterPro DOMAIN/s: Zinc finger, C2H2-like , Zinc finger, C2H2-type | BEST Arabidopsis thaliana protein match is: C2H2-type zinc finger family protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sopen08g022490</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>5.982411826695694</v>
+      </c>
+      <c r="C69">
+        <v>0.0002441612516919382</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Tyramine N-feruloyltransferase 4/11 (EC 2.3.1.110) - Nicotiana tabacum (Common tobacco), Acyl-CoA N-acyltransferases (NAT) superfamily protein | FUNCTIONS IN: N-acetyltransferase activity | INVOLVED IN: metabolic process | LOCATED IN: cellular_component unknown | EXPRESSED IN: 13 plant structures | EXPRESSED DURING: 10 growth stages | CONTAINS InterPro DOMAIN/s: GCN5-related N-acetyltransferase, C-terminal , GCN5-related N-acetyltransferase , Acyl-CoA N-acyltransferase | BEST Arabidopsis thaliana protein match is: Acyl-CoA N-acyltransferases (NAT) superfamily protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sopen10g008150</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>5.97831970233728</v>
+      </c>
+      <c r="C70">
+        <v>1.278637880421034e-226</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>member of BETA-EXPANSINS. Naming convention from the Expansin Working Group (Kende et al, 2004. Plant Mol Bio) | expansin B2 (EXPB2) | INVOLVED IN: plant-type cell wall modification involved in multidimensional cell growth, unidimensional cell growth, plant-type cell wall loosening | LOCATED IN: endomembrane system, extracellular region | EXPRESSED IN: root | CONTAINS InterPro DOMAIN/s: Barwin-related endoglucanase , Pollen allergen, N-terminal , Rare lipoprotein A , Major pollen allergen Lol pI , Expansin/Lol pI , Expansin 45, endoglucanase-like , Pollen allergen/expansin, C-terminal | BEST Arabidopsis thaliana protein match is: expansin B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sopen03g039140</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>5.975913466601972</v>
+      </c>
+      <c r="C71">
+        <v>1.398654773203945e-008</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>structural molecules | FUNCTIONS IN: structural molecule activity | INVOLVED IN: intracellular protein transport, vesicle-mediated transport | LOCATED IN: membrane coat, COPI vesicle coat | EXPRESSED IN: 25 plant structures | EXPRESSED DURING: 15 growth stages | CONTAINS InterPro DOMAIN/s: WD40 repeat 2 , Coatomer, WD associated region , WD40 repeat , G-protein beta WD-40 repeat, region , WD40 repeat-like-containing domain , WD40-repeat-containing domain , Coatomer, beta subunit , WD40/YVTN repeat-like-containing domain , WD40 repeat, subgroup | BEST Arabidopsis thaliana protein match is: Coatomer, beta subunit</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sopen11g027110</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>5.965307606219595</v>
+      </c>
+      <c r="C72">
+        <v>2.367584509566579e-006</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Sopen05g031660</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>5.911073953157861</v>
+      </c>
+      <c r="C73">
+        <v>0.0009892747828504278</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>snapdragon myb protein 305 homolog (myb) | myb domain protein 305 (MYB305) | CONTAINS InterPro DOMAIN/s: SANT, DNA-binding , Homeodomain-like , Myb, DNA-binding , HTH transcriptional regulator, Myb-type, DNA-binding , Homeodomain-related , Myb transcription factor | BEST Arabidopsis thaliana protein match is: myb domain protein 79</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sopen02g013270</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>5.889899397895345</v>
+      </c>
+      <c r="C74">
+        <v>0.000640277300376248</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>responsive to dehydration 22 (RD22) mediated by ABA | RESPONSIVE TO DESSICATION 22 (RD22) | FUNCTIONS IN: nutrient reservoir activity | INVOLVED IN: response to desiccation, response to salt stress, response to abscisic acid stimulus | LOCATED IN: endomembrane system | EXPRESSED IN: 21 plant structures | EXPRESSED DURING: 13 growth stages | CONTAINS InterPro DOMAIN/s: BURP | BEST Arabidopsis thaliana protein match is: unknown seed protein like 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sopen12g031970</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>5.863064962300132</v>
+      </c>
+      <c r="C75">
+        <v>9.761666215182096e-020</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>The At4g34135 gene encodes a flavonol 7-O-glucosyltransferase (EC 2.4.1.237) that glucosylates also with a 20 fold lower activity flavonols (kaempferol and quercetin) at the 3-O-position. | UDP-glucosyltransferase 73B2 (UGT73B2) | FUNCTIONS IN: flavonol 3-O-glucosyltransferase activity, UDP-glycosyltransferase activity, quercetin 7-O-glucosyltransferase activity, UDP-glucosyltransferase activity | INVOLVED IN: flavonol biosynthetic process, response to other organism | LOCATED IN: endomembrane system | EXPRESSED IN: male gametophyte, pollen tube | EXPRESSED DURING: M germinated pollen stage | CONTAINS InterPro DOMAIN/s: UDP-glucuronosyl/UDP-glucosyltransferase | BEST Arabidopsis thaliana protein match is: UDP-glucosyl transferase 73B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sopen08g003420</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>5.849940648647808</v>
+      </c>
+      <c r="C76">
+        <v>4.173976994523628e-014</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sopen04g022770</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>5.835268109788842</v>
+      </c>
+      <c r="C77">
+        <v>0.0011627510437943</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Encodes a cysteine-rich receptor-like protein kinase. | cysteine-rich RLK (RECEPTOR-like protein kinase) 8 (CRK8) | FUNCTIONS IN: kinase activity | INVOLVED IN: protein amino acid phosphorylation | CONTAINS InterPro DOMAIN/s: Protein kinase, ATP binding site , Reverse transcriptase, RNA-dependent DNA polymerase , Serine/threonine-protein kinase domain , Protein of unknown function DUF26 , Serine/threonine-protein kinase-like domain , Serine/threonine-protein kinase, active site , Protein kinase-like domain , Protein kinase, catalytic domain , Tyrosine-protein kinase, catalytic domain | BEST Arabidopsis thaliana protein match is: cysteine-rich RLK (RECEPTOR-like protein kinase) 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sopen09g006280</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>5.82326713186762</v>
+      </c>
+      <c r="C78">
+        <v>0.0001219990244503598</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Probable glutathione S-transferase (EC 2.5.1.18) (Auxin-induced protein PCNT103) - Nicotiana tabacum (Common tobacco), Encodes glutathione transferase belonging to the tau class of GSTs. Naming convention according to Wagner et al. (2002). | glutathione S-transferase TAU 8 (GSTU8) | FUNCTIONS IN: glutathione transferase activity | INVOLVED IN: response to cadmium ion, toxin catabolic process | LOCATED IN: cytoplasm | EXPRESSED IN: 7 plant structures | EXPRESSED DURING: LP.06 six leaves visible, LP.04 four leaves visible, 4 anthesis, petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: Thioredoxin fold , Glutathione S-transferase, C-terminal , Glutathione S-transferase, C-terminal-like , Glutathione S-transferase/chloride channel, C-terminal , Glutathione S-transferase, N-terminal , Thioredoxin-like fold | BEST Arabidopsis thaliana protein match is: glutathione S-transferase tau 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sopen10g020450</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>5.822333357047027</v>
+      </c>
+      <c r="C79">
+        <v>5.471515690729164e-027</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>nucleobase-ascorbate transporter 7 (NAT7) | FUNCTIONS IN: transmembrane transporter activity | INVOLVED IN: transport, transmembrane transport | LOCATED IN: plasma membrane, membrane | EXPRESSED IN: 8 plant structures | EXPRESSED DURING: C globular stage, petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: Xanthine/uracil/vitamin C permease | BEST Arabidopsis thaliana protein match is: nucleobase-ascorbate transporter 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sopen04g028240</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>5.807152357675303</v>
+      </c>
+      <c r="C80">
+        <v>0.0003653024998351222</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sopen04g006470</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>5.776018668446793</v>
+      </c>
+      <c r="C81">
+        <v>0.0008293589624814499</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sopen01g018650</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>5.75656620275217</v>
+      </c>
+      <c r="C82">
+        <v>2.65360878908825e-006</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>LOB domain-containing protein 1 (LBD1) | CONTAINS InterPro DOMAIN/s: Lateral organ boundaries, LOB | BEST Arabidopsis thaliana protein match is: LOB domain-containing protein 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sopen03g035320</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>5.753813494128505</v>
+      </c>
+      <c r="C83">
+        <v>1.243273438530835e-005</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Sopen02g032870</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>5.72110310604046</v>
+      </c>
+      <c r="C84">
+        <v>3.846993071223811e-107</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NAC domain containing protein 100 (NAC100) | FUNCTIONS IN: sequence-specific DNA binding transcription factor activity | INVOLVED IN: multicellular organismal development, regulation of transcription | LOCATED IN: cellular_component unknown | EXPRESSED IN: 9 plant structures | EXPRESSED DURING: LP.04 four leaves visible, 4 anthesis, petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: No apical meristem (NAM) protein | BEST Arabidopsis thaliana protein match is: NAC domain containing protein 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Sopen07g024900</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>5.708398815942089</v>
+      </c>
+      <c r="C85">
+        <v>1.018086055654702e-015</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Putative expansin-B14 precursor (OsEXPB14) (Beta-expansin-14) (OsEXPB16) (OsaEXPb1.14) (OsaEXPb1.18) - Oryza sativa (Rice), member of BETA-EXPANSINS. Naming convention from the Expansin Working Group (Kende et al, 2004. Plant Mol Bio) | expansin B2 (EXPB2) | INVOLVED IN: plant-type cell wall modification involved in multidimensional cell growth, unidimensional cell growth, plant-type cell wall loosening | LOCATED IN: endomembrane system, extracellular region | EXPRESSED IN: root | CONTAINS InterPro DOMAIN/s: Barwin-related endoglucanase , Pollen allergen, N-terminal , Rare lipoprotein A , Major pollen allergen Lol pI , Expansin/Lol pI , Expansin 45, endoglucanase-like , Pollen allergen/expansin, C-terminal | BEST Arabidopsis thaliana protein match is: expansin B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sopen03g021610</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>5.686649181021013</v>
+      </c>
+      <c r="C86">
+        <v>0.0001318392525002245</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>UDP-glucosyl transferase 85A2 (UGT85A2) | FUNCTIONS IN: UDP-glycosyltransferase activity, transferase activity, transferring glycosyl groups, glucuronosyltransferase activity | INVOLVED IN: metabolic process | LOCATED IN: cellular_component unknown | EXPRESSED IN: 21 plant structures | EXPRESSED DURING: 11 growth stages | CONTAINS InterPro DOMAIN/s: UDP-glucuronosyl/UDP-glucosyltransferase | BEST Arabidopsis thaliana protein match is: UDP-glucosyl transferase 85A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sopen01g033730</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>5.659485968601416</v>
+      </c>
+      <c r="C87">
+        <v>0.00200190411257917</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Protein of unknown function (DUF803) | CONTAINS InterPro DOMAIN/s: Protein of unknown function DUF803 | BEST Arabidopsis thaliana protein match is: Protein of unknown function (DUF803)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sopen01g040080</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>5.656018924691832</v>
+      </c>
+      <c r="C88">
+        <v>6.48224768753514e-007</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Encodes a homeodomain leucine zipper class I (HD-Zip I) protein. Loss of function mutant has abnormally shaped leaves and stems. | homeobox 12 (HB-12) | CONTAINS InterPro DOMAIN/s: Homeobox, conserved site , Homeobox , Homeodomain-like , Helix-turn-helix motif, lambda-like repressor , Leucine zipper, homeobox-associated , Homeodomain-related | BEST Arabidopsis thaliana protein match is: homeobox 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sopen10g034420</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>5.651271682258649</v>
+      </c>
+      <c r="C89">
+        <v>0.003251595036502747</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Probable glutathione S-transferase (EC 2.5.1.18) (Auxin-induced protein PGNT1/PCNT110) - Nicotiana tabacum (Common tobacco), Encodes glutathione transferase belonging to the tau class of GSTs. Naming convention according to Wagner et al. (2002). | glutathione S-transferase TAU 8 (GSTU8) | FUNCTIONS IN: glutathione transferase activity | INVOLVED IN: response to cadmium ion, toxin catabolic process | LOCATED IN: cytoplasm | EXPRESSED IN: 7 plant structures | EXPRESSED DURING: LP.06 six leaves visible, LP.04 four leaves visible, 4 anthesis, petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: Thioredoxin fold , Glutathione S-transferase, C-terminal , Glutathione S-transferase, C-terminal-like , Glutathione S-transferase/chloride channel, C-terminal , Glutathione S-transferase, N-terminal , Thioredoxin-like fold | BEST Arabidopsis thaliana protein match is: glutathione S-transferase tau 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sopen08g002690</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>5.641505004449949</v>
+      </c>
+      <c r="C90">
+        <v>0.0007438080955726268</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>embryo defective 1075 (emb1075) | FUNCTIONS IN: pyridoxal phosphate binding, carboxy-lyase activity, catalytic activity | INVOLVED IN: cellular amino acid metabolic process, embryo development ending in seed dormancy | LOCATED IN: cellular_component unknown | EXPRESSED IN: 25 plant structures | EXPRESSED DURING: 15 growth stages | CONTAINS InterPro DOMAIN/s: Pyridoxal phosphate-dependent transferase, major domain , Pyridoxal phosphate-dependent decarboxylase , Pyridoxal-phosphate binding site , Pyridoxal phosphate-dependent transferase, major region, subdomain 1 | BEST Arabidopsis thaliana protein match is: glutamate decarboxylase 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sopen08g024210</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>5.618932117323223</v>
+      </c>
+      <c r="C91">
+        <v>0.0006819611946235072</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>alternative oxidase 1D (AOX1D) | FUNCTIONS IN: alternative oxidase activity | INVOLVED IN: oxidation reduction, response to cyclopentenone | LOCATED IN: mitochondrial envelope, mitochondrion | EXPRESSED IN: stem, sepal, leaf, stamen | EXPRESSED DURING: LP.04 four leaves visible, 4 anthesis, petal differentiation and expansion stage | CONTAINS InterPro DOMAIN/s: Alternative oxidase | BEST Arabidopsis thaliana protein match is: alternative oxidase 1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sopen12g029280</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>5.577078471840268</v>
+      </c>
+      <c r="C92">
+        <v>0.0002396817186834478</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Encodes a novel member of the Lhc family from Arabidopsis with one predicted transmembrane alpha-helix closely related to helix I of Lhc protein from PSI (Lhca4). Gene expression is triggered by light stress and both transcript and protein accumulate in a light intensity-dependent manner. Ohp2 is associated with PSI under low- or high-light conditions. | one-helix protein 2 (OHP2) | FUNCTIONS IN: molecular_function unknown | INVOLVED IN: response to light intensity | LOCATED IN: chloroplast thylakoid membrane, chloroplast | EXPRESSED IN: 22 plant structures | EXPRESSED DURING: 13 growth stages</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sopen07g032370</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>5.573208613487622</v>
+      </c>
+      <c r="C93">
+        <v>0.0001931110594803704</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sopen07g034540</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>5.566075179187567</v>
+      </c>
+      <c r="C94">
+        <v>0.001026070537979397</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sopen12g029220</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>5.557804951894466</v>
+      </c>
+      <c r="C95">
+        <v>3.096441770564897e-111</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Encodes a cytosolic short-chain dehydrogenase/reductase involved in the conversion of xanthoxin to ABA-aldehyde during ABA biosynthesis. Mutants are insensitive to sucrose and glucose. | ABA DEFICIENT 2 (ABA2) | CONTAINS InterPro DOMAIN/s: NAD(P)-binding domain , Glucose/ribitol dehydrogenase , Short-chain dehydrogenase/reductase SDR | BEST Arabidopsis thaliana protein match is: NAD(P)-binding Rossmann-fold superfamily protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sopen08g009740</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>5.505142493731997</v>
+      </c>
+      <c r="C96">
+        <v>0.0009746476834017018</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Lipoxygenase, C-terminal, Lipoxygenase 1 (EC 1.13.11.12) - Solanum tuberosum (Potato), lipoxygenase, a defense gene conferring resistance Xanthomonas campestris | lipoxygenase 1 (LOX1) | CONTAINS InterPro DOMAIN/s: Lipoxygenase, iron binding site , Lipoxygenase, C-terminal , Lipoxygenase, LH2 , Lipase/lipooxygenase, PLAT/LH2 , Lipoxygenase, conserved site , Lipoxygenase , Lipoxygenase, plant | BEST Arabidopsis thaliana protein match is: PLAT/LH2 domain-containing lipoxygenase family protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sopen11g001190</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>5.496643348239498</v>
+      </c>
+      <c r="C97">
+        <v>7.87082332633401e-017</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Transducin/WD40 repeat-like superfamily protein | CONTAINS InterPro DOMAIN/s: WD40 repeat 2 , WD40 repeat-like-containing domain , WD40-repeat-containing domain , WD40/YVTN repeat-like-containing domain , WD40 repeat , WD40 repeat, subgroup | BEST Arabidopsis thaliana protein match is: Transducin/WD40 repeat-like superfamily protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sopen03g002660</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>5.489670485916563</v>
+      </c>
+      <c r="C98">
+        <v>0.0006014381383882537</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Sugar carrier protein C - Ricinus communis (Castor bean), Encodes a H+/hexose cotransporter. | sugar transporter 1 (STP1) | FUNCTIONS IN: carbohydrate transmembrane transporter activity, sugar:hydrogen symporter activity | INVOLVED IN: transport, transmembrane transport | LOCATED IN: nucleus, plasma membrane, vacuole, membrane | EXPRESSED IN: 25 plant structures | EXPRESSED DURING: 13 growth stages | CONTAINS InterPro DOMAIN/s: Sugar transporter, conserved site , Major facilitator superfamily , General substrate transporter , Sugar/inositol transporter , Major facilitator superfamily, general substrate transporter | BEST Arabidopsis thaliana protein match is: sugar transporter protein 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sopen09g035950</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>5.477628354694168</v>
+      </c>
+      <c r="C99">
+        <v>1.05966235995684e-020</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>member of CYP76C | cytochrome P450, family 76, subfamily C, polypeptide 2 (CYP76C2) | FUNCTIONS IN: electron carrier activity, monooxygenase activity, iron ion binding, oxygen binding, heme binding | INVOLVED IN: oxidation reduction | EXPRESSED IN: stem, sepal, male gametophyte, carpel, stamen | EXPRESSED DURING: 4 anthesis | CONTAINS InterPro DOMAIN/s: Cytochrome P450 , Cytochrome P450, E-class, group I , Cytochrome P450, conserved site | BEST Arabidopsis thaliana protein match is: cytochrome P450, family 76, subfamily C, polypeptide 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sopen08g025780</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>5.443052842078695</v>
+      </c>
+      <c r="C100">
+        <v>0.00177056254345153</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Encodes an inositol polyphosphate 5-phosphatase that appears to have Type I activity. It can dephosphorylate IP3(inositol(1,4,5)P3) and IP4 (inositol(1,3,4,5)P4), but it does not appear to be active against phosphatidylinositol 4,5 bisphosphate. Overexpression of this gene renders plants insensitive to ABA in germination and growth assays. | INOSITOL(1,4,5)P3 5-PHOSPHATASE II (IP5PII) | CONTAINS InterPro DOMAIN/s: Inositol polyphosphate related phosphatase , Endonuclease/exonuclease/phosphatase | BEST Arabidopsis thaliana protein match is: DNAse I-like superfamily protein</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sopen01g032890</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>5.397203876695008</v>
+      </c>
+      <c r="C101">
+        <v>3.344000740747575e-006</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Encodes glutathione transferase belonging to the tau class of GSTs. Naming convention according to Wagner et al. (2002). Induced by Salicylic acid. Independent of NPR1 for their induction by salicylic acid. | glutathione S-transferase tau 7 (GSTU7) | CONTAINS InterPro DOMAIN/s: Thioredoxin fold , Glutathione S-transferase, C-terminal , Glutathione S-transferase, C-terminal-like , Glutathione S-transferase/chloride channel, C-terminal , Glutathione S-transferase, N-terminal , Thioredoxin-like fold | BEST Arabidopsis thaliana protein match is: glutathione S-transferase tau 4</t>
         </is>
       </c>
     </row>
